--- a/source/example_project.xlsx
+++ b/source/example_project.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/example_project.xlsx
+++ b/source/example_project.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaeyeonLee/MyGit/SOMAReport/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devholic/Desktop/git/SOMAReport/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
